--- a/Pテストスケルトン自動生成.xlsx
+++ b/Pテストスケルトン自動生成.xlsx
@@ -891,7 +891,7 @@
     <col min="1" max="1" width="7" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.875" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="71.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="72.625" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="154" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
@@ -985,8 +985,8 @@
         <v>13</v>
       </c>
       <c r="D9" s="5" t="str">
-        <f>IF(OR(ISBLANK(A9), ISBLANK(B9), ISBLANK(C9)), "", "$this-&gt;" &amp; LOWER(A9) &amp; "Table['" &amp; B9 &amp; "'] = array(this, " &amp; C9 &amp; ");")</f>
-        <v>$this-&gt;givenTable['インスタンスを生成する'] = array(this, createInstance);</v>
+        <f>IF(OR(ISBLANK(A9), ISBLANK(B9), ISBLANK(C9)), "", "$this-&gt;" &amp; LOWER(A9) &amp; "Table['" &amp; B9 &amp; "'] = array(this, '" &amp; C9 &amp; "');")</f>
+        <v>$this-&gt;givenTable['インスタンスを生成する'] = array(this, 'createInstance');</v>
       </c>
       <c r="E9" s="6" t="str">
         <f>IF(OR(ISBLANK(A9),ISBLANK(B9),ISBLANK(C9)),"","/** " &amp; B9 &amp; " */protected function "&amp;C9&amp;"(array &amp;$world, array $arguments){$this-&gt;fail('"""&amp;B9&amp;""" is not implemented.');}")</f>
@@ -998,11 +998,11 @@
         <v>3</v>
       </c>
       <c r="D10" s="5" t="str">
-        <f t="shared" ref="D10:D73" si="0">IF(OR(ISBLANK(A10), ISBLANK(B10), ISBLANK(C10)), "", "$this-&gt;" &amp; LOWER(A10) &amp; "Table['" &amp; B10 &amp; "'] = array(this, " &amp; C10 &amp; ");")</f>
+        <f t="shared" ref="D10:D73" si="0">IF(OR(ISBLANK(A10), ISBLANK(B10), ISBLANK(C10)), "", "$this-&gt;" &amp; LOWER(A10) &amp; "Table['" &amp; B10 &amp; "'] = array(this, '" &amp; C10 &amp; "');")</f>
         <v/>
       </c>
       <c r="E10" s="6" t="str">
-        <f t="shared" ref="E10:E73" si="1">IF(OR(ISBLANK(A10),ISBLANK(B10),ISBLANK(C10)),"","/** " &amp; B10 &amp; " */protected function "&amp;C10&amp;"(array &amp;$world, array $arguments):void{$this-&gt;fail('"""&amp;B10&amp;""" is not implemented.');}")</f>
+        <f t="shared" ref="E10:E73" si="1">IF(OR(ISBLANK(A10),ISBLANK(B10),ISBLANK(C10)),"","/** " &amp; B10 &amp; " */protected function "&amp;C10&amp;"(array &amp;$world, array $arguments){$this-&gt;fail('"""&amp;B10&amp;""" is not implemented.');}")</f>
         <v/>
       </c>
     </row>
@@ -1641,11 +1641,11 @@
     </row>
     <row r="74" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D74" s="5" t="str">
-        <f t="shared" ref="D74:D100" si="2">IF(OR(ISBLANK(A74), ISBLANK(B74), ISBLANK(C74)), "", "$this-&gt;" &amp; LOWER(A74) &amp; "Table['" &amp; B74 &amp; "'] = array(this, " &amp; C74 &amp; ");")</f>
+        <f t="shared" ref="D74:D100" si="2">IF(OR(ISBLANK(A74), ISBLANK(B74), ISBLANK(C74)), "", "$this-&gt;" &amp; LOWER(A74) &amp; "Table['" &amp; B74 &amp; "'] = array(this, '" &amp; C74 &amp; "');")</f>
         <v/>
       </c>
       <c r="E74" s="6" t="str">
-        <f t="shared" ref="E74:E100" si="3">IF(OR(ISBLANK(A74),ISBLANK(B74),ISBLANK(C74)),"","/** " &amp; B74 &amp; " */protected function "&amp;C74&amp;"(array &amp;$world, array $arguments):void{$this-&gt;fail('"""&amp;B74&amp;""" is not implemented.');}")</f>
+        <f t="shared" ref="E74:E100" si="3">IF(OR(ISBLANK(A74),ISBLANK(B74),ISBLANK(C74)),"","/** " &amp; B74 &amp; " */protected function "&amp;C74&amp;"(array &amp;$world, array $arguments){$this-&gt;fail('"""&amp;B74&amp;""" is not implemented.');}")</f>
         <v/>
       </c>
     </row>

--- a/Pテストスケルトン自動生成.xlsx
+++ b/Pテストスケルトン自動生成.xlsx
@@ -985,8 +985,8 @@
         <v>13</v>
       </c>
       <c r="D9" s="5" t="str">
-        <f>IF(OR(ISBLANK(A9), ISBLANK(B9), ISBLANK(C9)), "", "$this-&gt;" &amp; LOWER(A9) &amp; "Table['" &amp; B9 &amp; "'] = array(this, '" &amp; C9 &amp; "');")</f>
-        <v>$this-&gt;givenTable['インスタンスを生成する'] = array(this, 'createInstance');</v>
+        <f>IF(OR(ISBLANK(A9), ISBLANK(B9), ISBLANK(C9)), "", "$this-&gt;" &amp; LOWER(A9) &amp; "Table['" &amp; B9 &amp; "'] = array($this, '" &amp; C9 &amp; "');")</f>
+        <v>$this-&gt;givenTable['インスタンスを生成する'] = array($this, 'createInstance');</v>
       </c>
       <c r="E9" s="6" t="str">
         <f>IF(OR(ISBLANK(A9),ISBLANK(B9),ISBLANK(C9)),"","/** " &amp; B9 &amp; " */protected function "&amp;C9&amp;"(array &amp;$world, array $arguments){$this-&gt;fail('"""&amp;B9&amp;""" is not implemented.');}")</f>
@@ -998,7 +998,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="5" t="str">
-        <f t="shared" ref="D10:D73" si="0">IF(OR(ISBLANK(A10), ISBLANK(B10), ISBLANK(C10)), "", "$this-&gt;" &amp; LOWER(A10) &amp; "Table['" &amp; B10 &amp; "'] = array(this, '" &amp; C10 &amp; "');")</f>
+        <f t="shared" ref="D10:D73" si="0">IF(OR(ISBLANK(A10), ISBLANK(B10), ISBLANK(C10)), "", "$this-&gt;" &amp; LOWER(A10) &amp; "Table['" &amp; B10 &amp; "'] = array($this, '" &amp; C10 &amp; "');")</f>
         <v/>
       </c>
       <c r="E10" s="6" t="str">
@@ -1641,7 +1641,7 @@
     </row>
     <row r="74" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D74" s="5" t="str">
-        <f t="shared" ref="D74:D100" si="2">IF(OR(ISBLANK(A74), ISBLANK(B74), ISBLANK(C74)), "", "$this-&gt;" &amp; LOWER(A74) &amp; "Table['" &amp; B74 &amp; "'] = array(this, '" &amp; C74 &amp; "');")</f>
+        <f t="shared" ref="D74:D100" si="2">IF(OR(ISBLANK(A74), ISBLANK(B74), ISBLANK(C74)), "", "$this-&gt;" &amp; LOWER(A74) &amp; "Table['" &amp; B74 &amp; "'] = array($this, '" &amp; C74 &amp; "');")</f>
         <v/>
       </c>
       <c r="E74" s="6" t="str">

--- a/Pテストスケルトン自動生成.xlsx
+++ b/Pテストスケルトン自動生成.xlsx
@@ -1940,7 +1940,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" formatColumns="0"/>
+  <sheetProtection sheet="1" scenarios="1" formatColumns="0"/>
   <mergeCells count="7">
     <mergeCell ref="A7:E7"/>
     <mergeCell ref="A1:E1"/>
